--- a/Assets/_TankRes/excel/map.xlsx
+++ b/Assets/_TankRes/excel/map.xlsx
@@ -7,8 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="#end" sheetId="2" r:id="rId1"/>
-    <sheet name="prop" sheetId="1" r:id="rId2"/>
+    <sheet name="mapType" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,63 +27,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
-  <si>
-    <t>道具类型唯一标识</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+  <si>
+    <t>唯一标识</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>资源名称</t>
-  </si>
-  <si>
-    <t>资源位置</t>
+    <t>空格概率（自动计算）</t>
+  </si>
+  <si>
+    <t>砖块概率</t>
+  </si>
+  <si>
+    <t>石块概率</t>
+  </si>
+  <si>
+    <t>草概率</t>
+  </si>
+  <si>
+    <t>水概率</t>
+  </si>
+  <si>
+    <t>雪概率</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Path</t>
+    <t>PNull</t>
+  </si>
+  <si>
+    <t>PWall</t>
+  </si>
+  <si>
+    <t>PStone</t>
+  </si>
+  <si>
+    <t>PGress</t>
+  </si>
+  <si>
+    <t>PWater</t>
+  </si>
+  <si>
+    <t>PSnow</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Player1</t>
-  </si>
-  <si>
-    <t>Assets/Download/prefab/entity/tank/</t>
-  </si>
-  <si>
-    <t>Player2</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>Wall</t>
-  </si>
-  <si>
-    <t>Assets/Download/prefab/entity/map/wall/</t>
-  </si>
-  <si>
-    <t>Wall_LD</t>
-  </si>
-  <si>
-    <t>Wall_LU</t>
-  </si>
-  <si>
-    <t>Wall_RD</t>
-  </si>
-  <si>
-    <t>Wall_RU</t>
+    <t>float</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>普通模式</t>
+  </si>
+  <si>
+    <t>砖块多</t>
+  </si>
+  <si>
+    <t>石头多</t>
+  </si>
+  <si>
+    <t>草地多</t>
+  </si>
+  <si>
+    <t>雪地多</t>
+  </si>
+  <si>
+    <t>空格多</t>
   </si>
 </sst>
 </file>
@@ -97,7 +111,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,20 +121,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -617,137 +625,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -758,9 +766,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1074,223 +1079,285 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.0083333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.3416666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="5" width="15.0083333333333" customWidth="1"/>
+    <col min="6" max="6" width="13.675" customWidth="1"/>
+    <col min="7" max="7" width="14.0083333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.3416666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31.25" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="31.25" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:C10" si="0">1-SUM(D5:H5)</f>
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="20.9333333333333" customWidth="1"/>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" ht="31.9" customHeight="1" spans="1:4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>